--- a/設計書/05利用者情報登録.xlsx
+++ b/設計書/05利用者情報登録.xlsx
@@ -1,17 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7F-001\Desktop\図書館システム機能設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m0119299f7\Desktop\library_yasuda\設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DD958B-49D9-4DFD-9C98-9BBFAAAECED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{95718628-47A6-4834-AA0E-F18C238F7B6B}"/>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{44DEBC4D-5A0A-404A-9E35-0FD107B99633}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -23,7 +21,7 @@
     <sheet name="入出力仕様一覧" sheetId="8" r:id="rId7"/>
     <sheet name="SQL一覧" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2503,7 +2501,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2700,8 +2698,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1385207" y="20040600"/>
-          <a:ext cx="9752045" cy="7142314"/>
+          <a:off x="1385207" y="19056350"/>
+          <a:ext cx="9720295" cy="6745439"/>
           <a:chOff x="13137325" y="1007918"/>
           <a:chExt cx="9645538" cy="7462701"/>
         </a:xfrm>
@@ -2966,8 +2964,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="880706" y="1074964"/>
-          <a:ext cx="10311171" cy="6164036"/>
+          <a:off x="880706" y="1011464"/>
+          <a:ext cx="10279421" cy="5910036"/>
           <a:chOff x="2399062" y="932089"/>
           <a:chExt cx="8792815" cy="5570685"/>
         </a:xfrm>
@@ -4082,8 +4080,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1471613" y="11953875"/>
-          <a:ext cx="9638611" cy="6192940"/>
+          <a:off x="1479550" y="11414125"/>
+          <a:ext cx="9598924" cy="5859565"/>
           <a:chOff x="1469448" y="16776989"/>
           <a:chExt cx="9619128" cy="6671787"/>
         </a:xfrm>
@@ -4448,8 +4446,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1377228" y="28300074"/>
-          <a:ext cx="9729098" cy="6140119"/>
+          <a:off x="1377228" y="26855449"/>
+          <a:ext cx="9697348" cy="5759119"/>
           <a:chOff x="13402973" y="12694660"/>
           <a:chExt cx="9615664" cy="6571342"/>
         </a:xfrm>
@@ -4664,8 +4662,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1381992" y="35581071"/>
-          <a:ext cx="9752045" cy="6108946"/>
+          <a:off x="1381992" y="33676071"/>
+          <a:ext cx="9720295" cy="5727946"/>
           <a:chOff x="13383492" y="22122246"/>
           <a:chExt cx="9666320" cy="5937496"/>
         </a:xfrm>
@@ -5200,110 +5198,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EC26A92-CA13-40B9-8B79-674D4E5625B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="60.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.125" customWidth="1"/>
-    <col min="6" max="10" width="10.375" customWidth="1"/>
+    <col min="5" max="5" width="30.08203125" customWidth="1"/>
+    <col min="6" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="1"/>
     </row>
   </sheetData>
@@ -5313,47 +5306,42 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{611A3442-AB74-4234-A907-31B0299FAFC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
-    </sheetView>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="1">
-      <selection activeCell="J1" sqref="J1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.08203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="24.08203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.58203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.25" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -5367,7 +5355,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I4" s="4" t="s">
         <v>4</v>
       </c>
@@ -5390,7 +5378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I5" s="4">
         <v>1</v>
       </c>
@@ -5413,7 +5401,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I6" s="4">
         <v>2</v>
       </c>
@@ -5436,7 +5424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I7" s="4">
         <v>3</v>
       </c>
@@ -5459,7 +5447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I8" s="4">
         <v>4</v>
       </c>
@@ -5482,7 +5470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I9" s="4">
         <v>5</v>
       </c>
@@ -5505,7 +5493,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I10" s="4">
         <v>6</v>
       </c>
@@ -5528,7 +5516,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I11" s="4">
         <v>7</v>
       </c>
@@ -5551,7 +5539,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I12" s="4">
         <v>8</v>
       </c>
@@ -5574,7 +5562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I13" s="4">
         <v>9</v>
       </c>
@@ -5597,7 +5585,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I14" s="4">
         <v>10</v>
       </c>
@@ -5620,7 +5608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I15" s="4">
         <v>11</v>
       </c>
@@ -5643,7 +5631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I16" s="4">
         <v>12</v>
       </c>
@@ -5666,7 +5654,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I17" s="4">
         <v>13</v>
       </c>
@@ -5689,7 +5677,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="2:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I18" s="4">
         <v>14</v>
       </c>
@@ -5712,7 +5700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I19" s="4">
         <v>15</v>
       </c>
@@ -5735,7 +5723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I20" s="4">
         <v>16</v>
       </c>
@@ -5758,7 +5746,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I21" s="4">
         <v>17</v>
       </c>
@@ -5781,7 +5769,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I22" s="4">
         <v>18</v>
       </c>
@@ -5804,7 +5792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="2:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I23" s="4">
         <v>19</v>
       </c>
@@ -5827,7 +5815,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="24" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I24" s="4">
         <v>20</v>
       </c>
@@ -5850,7 +5838,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I25" s="4">
         <v>21</v>
       </c>
@@ -5873,12 +5861,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I32" s="4" t="s">
         <v>4</v>
       </c>
@@ -5901,7 +5889,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="33" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I33" s="4">
         <v>1</v>
       </c>
@@ -5924,7 +5912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="34" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I34" s="4">
         <v>2</v>
       </c>
@@ -5947,7 +5935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="35" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I35" s="4">
         <v>3</v>
       </c>
@@ -5970,7 +5958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="36" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I36" s="4">
         <v>4</v>
       </c>
@@ -5993,7 +5981,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="37" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I37" s="4">
         <v>5</v>
       </c>
@@ -6016,7 +6004,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="9:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="9:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I38" s="4">
         <v>6</v>
       </c>
@@ -6039,12 +6027,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I61" s="4" t="s">
         <v>3</v>
       </c>
@@ -6055,7 +6043,7 @@
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
     </row>
-    <row r="62" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I62" s="4" t="s">
         <v>4</v>
       </c>
@@ -6078,7 +6066,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" s="4" t="s">
         <v>125</v>
       </c>
@@ -6101,7 +6089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I64" s="4">
         <v>22</v>
       </c>
@@ -6124,7 +6112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="65" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I65" s="4">
         <v>23</v>
       </c>
@@ -6147,7 +6135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="66" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I66" s="4">
         <v>24</v>
       </c>
@@ -6170,7 +6158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="9:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="67" spans="9:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I67" s="4">
         <v>25</v>
       </c>
@@ -6193,12 +6181,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I89" s="4" t="s">
         <v>4</v>
       </c>
@@ -6221,7 +6209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="2:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I90" s="4">
         <v>1</v>
       </c>
@@ -6244,7 +6232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="2:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I91" s="4">
         <v>2</v>
       </c>
@@ -6267,7 +6255,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I92" s="4">
         <v>3</v>
       </c>
@@ -6290,12 +6278,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I116" s="4" t="s">
         <v>4</v>
       </c>
@@ -6318,7 +6306,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="2:15" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I117" s="4">
         <v>1</v>
       </c>
@@ -6341,7 +6329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="2:15" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:15" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="I118" s="4">
         <v>2</v>
       </c>
@@ -6364,7 +6352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="2:15" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="I119" s="4">
         <v>3</v>
       </c>
@@ -6396,17 +6384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C961E6-AFBA-40CF-9F40-B85224B796D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -6419,32 +6404,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA677CA7-E0A4-472E-AACA-88B5C437F42B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="1">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.375" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.75" style="12" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="53.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.08203125" customWidth="1"/>
+    <col min="4" max="4" width="53.08203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.58203125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
-    <col min="10" max="10" width="30.125" customWidth="1"/>
+    <col min="10" max="10" width="30.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>16</v>
       </c>
@@ -6456,7 +6438,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -6477,7 +6459,7 @@
       </c>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -6499,7 +6481,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="8">
         <v>2</v>
       </c>
@@ -6521,7 +6503,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -6542,7 +6524,7 @@
       </c>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="8">
         <v>4</v>
       </c>
@@ -6563,7 +6545,7 @@
       </c>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -6584,7 +6566,7 @@
       </c>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="8">
         <v>6</v>
       </c>
@@ -6605,7 +6587,7 @@
       </c>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="8">
         <v>7</v>
       </c>
@@ -6625,7 +6607,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="8">
         <v>8</v>
       </c>
@@ -6645,7 +6627,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="8">
         <v>9</v>
       </c>
@@ -6665,7 +6647,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="8">
         <v>10</v>
       </c>
@@ -6685,7 +6667,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -6705,7 +6687,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="75" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
         <v>188</v>
       </c>
@@ -6725,7 +6707,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
         <v>189</v>
       </c>
@@ -6745,7 +6727,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
         <v>208</v>
       </c>
@@ -6765,7 +6747,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
         <v>209</v>
       </c>
@@ -6785,7 +6767,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
         <v>193</v>
       </c>
@@ -6805,7 +6787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
         <v>198</v>
       </c>
@@ -6825,7 +6807,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
         <v>202</v>
       </c>
@@ -6852,25 +6834,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0EC8F0-9644-4BB5-9EF3-32CAFD739C28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="44.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -6878,7 +6855,7 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -6892,7 +6869,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6906,7 +6883,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -6920,7 +6897,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -6934,7 +6911,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -6948,7 +6925,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -6962,7 +6939,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -6976,7 +6953,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -6997,31 +6974,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4ADA325-B524-45A1-B671-411BA58E9557}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>17</v>
       </c>
@@ -7032,7 +7004,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7043,7 +7015,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -7054,7 +7026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -7065,7 +7037,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -7076,7 +7048,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -7087,7 +7059,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -7098,7 +7070,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -7116,30 +7088,27 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237E96D9-9059-446F-A39D-F80C3A473A7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
-    </sheetView>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="1">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="13.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="27.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="70.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="70.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="14" t="s">
         <v>30</v>
       </c>
@@ -7152,7 +7121,7 @@
       <c r="F1" s="4"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
@@ -7175,7 +7144,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -7198,7 +7167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -7219,7 +7188,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -7242,7 +7211,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -7263,7 +7232,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -7286,7 +7255,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -7307,7 +7276,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -7330,7 +7299,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -7351,7 +7320,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
         <v>265</v>
       </c>
@@ -7374,7 +7343,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14" t="s">
         <v>263</v>
       </c>
@@ -7395,7 +7364,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14" t="s">
         <v>264</v>
       </c>
@@ -7418,7 +7387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14" t="s">
         <v>274</v>
       </c>
@@ -7441,7 +7410,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14" t="s">
         <v>193</v>
       </c>
@@ -7462,7 +7431,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14" t="s">
         <v>275</v>
       </c>
@@ -7483,7 +7452,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14" t="s">
         <v>276</v>
       </c>
@@ -7511,34 +7480,29 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42522D73-4E65-4C89-8884-6AF70FD997A0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.58203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -7567,7 +7531,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7596,7 +7560,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2">
         <v>2</v>
       </c>

--- a/設計書/05利用者情報登録.xlsx
+++ b/設計書/05利用者情報登録.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="272">
   <si>
     <t>機能概要</t>
     <rPh sb="0" eb="4">
@@ -270,13 +270,6 @@
   </si>
   <si>
     <t>ソート条件</t>
-  </si>
-  <si>
-    <t>検索</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>-</t>
@@ -1873,19 +1866,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>電話番号重複確認</t>
-    <rPh sb="0" eb="4">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>チョウフク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メッセージ一覧No4参照</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -1977,26 +1957,6 @@
     <t>チェック仕様一覧No5</t>
     <rPh sb="4" eb="8">
       <t>シヨウイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>利用できない電話番号です。</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メッセージ一覧No7参照</t>
-    <rPh sb="5" eb="7">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2142,32 +2102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>利用者マスタに入力された電話番号が存在しないか確認</t>
-    <rPh sb="0" eb="3">
-      <t>リヨウシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>チェック仕様一覧No7</t>
-    <rPh sb="4" eb="8">
-      <t>シヨウイチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>エスケープシーケンス以外</t>
     <rPh sb="10" eb="12">
       <t>イガイ</t>
@@ -2354,16 +2288,6 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>電話番号登録件数</t>
-    <rPh sb="0" eb="4">
-      <t>デンワバンゴウ</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>トウロクケンスウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -5201,7 +5125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -5214,12 +5138,12 @@
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -5229,7 +5153,7 @@
     </row>
     <row r="6" spans="2:2" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -5237,57 +5161,57 @@
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
@@ -5309,7 +5233,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O119"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView topLeftCell="A85" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -5383,16 +5309,16 @@
         <v>1</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="L5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="4" t="s">
         <v>56</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="N5" s="4" t="s">
         <v>11</v>
@@ -5406,16 +5332,16 @@
         <v>2</v>
       </c>
       <c r="J6" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>59</v>
-      </c>
       <c r="L6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>11</v>
@@ -5429,16 +5355,16 @@
         <v>3</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>11</v>
@@ -5452,16 +5378,16 @@
         <v>4</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>11</v>
@@ -5475,10 +5401,10 @@
         <v>5</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>11</v>
@@ -5498,10 +5424,10 @@
         <v>6</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>11</v>
@@ -5521,22 +5447,22 @@
         <v>7</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -5544,10 +5470,10 @@
         <v>8</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>11</v>
@@ -5567,22 +5493,22 @@
         <v>9</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -5590,10 +5516,10 @@
         <v>10</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>11</v>
@@ -5613,10 +5539,10 @@
         <v>11</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>11</v>
@@ -5636,10 +5562,10 @@
         <v>12</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>11</v>
@@ -5659,22 +5585,22 @@
         <v>13</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:15" ht="54" x14ac:dyDescent="0.55000000000000004">
@@ -5682,22 +5608,22 @@
         <v>14</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -5705,10 +5631,10 @@
         <v>15</v>
       </c>
       <c r="J19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="K19" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>11</v>
@@ -5728,10 +5654,10 @@
         <v>16</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>11</v>
@@ -5751,22 +5677,22 @@
         <v>17</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="N21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="O21" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -5774,10 +5700,10 @@
         <v>18</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>11</v>
@@ -5797,22 +5723,22 @@
         <v>19</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L23" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="O23" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -5820,22 +5746,22 @@
         <v>20</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -5846,24 +5772,24 @@
         <v>14</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -5894,10 +5820,10 @@
         <v>1</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>11</v>
@@ -5917,10 +5843,10 @@
         <v>2</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>11</v>
@@ -5940,10 +5866,10 @@
         <v>3</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>11</v>
@@ -5963,10 +5889,10 @@
         <v>4</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>11</v>
@@ -5986,16 +5912,16 @@
         <v>5</v>
       </c>
       <c r="J37" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K37" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="L37" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>11</v>
@@ -6009,16 +5935,16 @@
         <v>6</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N38" s="4" t="s">
         <v>11</v>
@@ -6029,7 +5955,7 @@
     </row>
     <row r="58" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -6068,25 +5994,25 @@
     </row>
     <row r="63" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="I63" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M63" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N63" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="O63" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="64" spans="2:15" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -6094,13 +6020,13 @@
         <v>22</v>
       </c>
       <c r="J64" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="K64" s="4" t="s">
-        <v>128</v>
-      </c>
       <c r="L64" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>12</v>
@@ -6117,13 +6043,13 @@
         <v>23</v>
       </c>
       <c r="J65" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K65" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="K65" s="4" t="s">
-        <v>130</v>
-      </c>
       <c r="L65" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>12</v>
@@ -6140,13 +6066,13 @@
         <v>24</v>
       </c>
       <c r="J66" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="K66" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="L66" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>12</v>
@@ -6163,13 +6089,13 @@
         <v>25</v>
       </c>
       <c r="J67" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="K67" s="4" t="s">
-        <v>134</v>
-      </c>
       <c r="L67" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>12</v>
@@ -6183,7 +6109,7 @@
     </row>
     <row r="88" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="89" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -6214,10 +6140,10 @@
         <v>1</v>
       </c>
       <c r="J90" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K90" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>11</v>
@@ -6237,10 +6163,10 @@
         <v>2</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="L91" s="4" t="s">
         <v>11</v>
@@ -6260,10 +6186,10 @@
         <v>3</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L92" s="4" t="s">
         <v>11</v>
@@ -6280,7 +6206,7 @@
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="2:15" x14ac:dyDescent="0.55000000000000004">
@@ -6311,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K117" s="4" t="s">
         <v>11</v>
@@ -6320,7 +6246,7 @@
         <v>11</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N117" s="4" t="s">
         <v>11</v>
@@ -6334,10 +6260,10 @@
         <v>2</v>
       </c>
       <c r="J118" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="L118" s="4" t="s">
         <v>11</v>
@@ -6360,13 +6286,13 @@
         <v>14</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N119" s="4" t="s">
         <v>11</v>
@@ -6387,7 +6313,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
@@ -6408,7 +6336,7 @@
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -6432,7 +6360,7 @@
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -6443,13 +6371,13 @@
         <v>17</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>19</v>
@@ -6464,19 +6392,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="1"/>
@@ -6486,19 +6414,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="1"/>
@@ -6508,19 +6436,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="H5" s="3"/>
     </row>
@@ -6529,19 +6457,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="H6" s="3"/>
     </row>
@@ -6550,19 +6478,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H7" s="3"/>
     </row>
@@ -6571,19 +6499,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="3"/>
     </row>
@@ -6592,19 +6520,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -6612,19 +6540,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E10" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6632,19 +6560,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -6652,19 +6580,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -6672,159 +6600,159 @@
         <v>11</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>190</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="E17" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="E18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="C19" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="D19" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="C20" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>204</v>
-      </c>
       <c r="D20" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -6835,9 +6763,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -6874,10 +6804,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>24</v>
@@ -6888,10 +6818,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>25</v>
@@ -6902,13 +6832,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="36" x14ac:dyDescent="0.55000000000000004">
@@ -6916,13 +6846,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6930,13 +6860,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -6944,27 +6874,13 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6975,9 +6891,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7009,7 +6927,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>28</v>
@@ -7020,7 +6938,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
@@ -7031,10 +6949,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7042,10 +6960,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7053,10 +6971,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -7064,21 +6982,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -7092,7 +6999,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
@@ -7113,7 +7020,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7138,7 +7045,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>33</v>
@@ -7149,22 +7056,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7176,16 +7083,16 @@
         <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7193,22 +7100,22 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7220,16 +7127,16 @@
         <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7237,22 +7144,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7264,16 +7171,16 @@
         <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7281,22 +7188,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7308,169 +7215,169 @@
         <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="14" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="14" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="14" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="14" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="14" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="14" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -7481,9 +7388,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -7531,62 +7440,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
+      <c r="G3" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
